--- a/Server/Required_files/Available_NLP.xlsx
+++ b/Server/Required_files/Available_NLP.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Should not be the same across rows {PersonNumber}</t>
+          <t>i want the {PersonNumber} to be unique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>

--- a/Server/Required_files/Available_NLP.xlsx
+++ b/Server/Required_files/Available_NLP.xlsx
@@ -570,7 +570,6 @@
           <t>i want the {PersonNumber} to be unique</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>Venkataraman_Test_Worker.py</t>
@@ -585,9 +584,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{EffectiveStartDate} must be earlier than {EffectiveEndDate} the date format will have only 2 digit for year</t>
-        </is>
-      </c>
+          <t>{EffectiveStartDate} has to be above 1970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>Venkataraman_Test_Worker.py</t>
